--- a/El_Puente.xlsx
+++ b/El_Puente.xlsx
@@ -502,16 +502,16 @@
         <v>179282.18</v>
       </c>
       <c r="G2" t="n">
-        <v>1514.89</v>
+        <v>1514.91</v>
       </c>
       <c r="H2" t="n">
-        <v>15656.52</v>
+        <v>1572</v>
       </c>
       <c r="I2" t="n">
-        <v>408530.28</v>
+        <v>14350.5</v>
       </c>
       <c r="J2" t="n">
-        <v>425701.69</v>
+        <v>17437.41</v>
       </c>
     </row>
     <row r="3">
@@ -539,13 +539,13 @@
         <v>1495.04</v>
       </c>
       <c r="H3" t="n">
-        <v>35189.58</v>
+        <v>1430</v>
       </c>
       <c r="I3" t="n">
-        <v>553895.17</v>
+        <v>9155.790000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>590579.79</v>
+        <v>12080.83</v>
       </c>
     </row>
     <row r="4">
@@ -570,16 +570,16 @@
         <v>175516.95</v>
       </c>
       <c r="G4" t="n">
-        <v>1788.99</v>
+        <v>1789</v>
       </c>
       <c r="H4" t="n">
-        <v>60515.05</v>
+        <v>1317</v>
       </c>
       <c r="I4" t="n">
-        <v>819422.67</v>
+        <v>12937.99</v>
       </c>
       <c r="J4" t="n">
-        <v>881726.71</v>
+        <v>16044</v>
       </c>
     </row>
     <row r="5">
@@ -604,16 +604,16 @@
         <v>168668.66</v>
       </c>
       <c r="G5" t="n">
-        <v>1392.18</v>
+        <v>1392.16</v>
       </c>
       <c r="H5" t="n">
-        <v>79808.05</v>
+        <v>1530</v>
       </c>
       <c r="I5" t="n">
-        <v>1015918.78</v>
+        <v>14028.52</v>
       </c>
       <c r="J5" t="n">
-        <v>1097119.01</v>
+        <v>16950.69</v>
       </c>
     </row>
     <row r="6">
@@ -638,16 +638,16 @@
         <v>173147.38</v>
       </c>
       <c r="G6" t="n">
-        <v>1719.59</v>
+        <v>1719.61</v>
       </c>
       <c r="H6" t="n">
-        <v>104693.52</v>
+        <v>1435</v>
       </c>
       <c r="I6" t="n">
-        <v>1257335.38</v>
+        <v>10523.91</v>
       </c>
       <c r="J6" t="n">
-        <v>1363748.49</v>
+        <v>13678.51</v>
       </c>
     </row>
     <row r="7">
@@ -672,16 +672,16 @@
         <v>172346.17</v>
       </c>
       <c r="G7" t="n">
-        <v>1588.1</v>
+        <v>1588.09</v>
       </c>
       <c r="H7" t="n">
-        <v>122367.05</v>
+        <v>1392</v>
       </c>
       <c r="I7" t="n">
-        <v>1425203.06</v>
+        <v>12650.49</v>
       </c>
       <c r="J7" t="n">
-        <v>1549158.21</v>
+        <v>15630.58</v>
       </c>
     </row>
     <row r="8">
@@ -706,16 +706,16 @@
         <v>183784.95</v>
       </c>
       <c r="G8" t="n">
-        <v>1813.78</v>
+        <v>1813.79</v>
       </c>
       <c r="H8" t="n">
-        <v>151031.05</v>
+        <v>1710</v>
       </c>
       <c r="I8" t="n">
-        <v>1650579.04</v>
+        <v>9448.17</v>
       </c>
       <c r="J8" t="n">
-        <v>1803423.87</v>
+        <v>12971.96</v>
       </c>
     </row>
     <row r="9">
@@ -740,16 +740,16 @@
         <v>179142.61</v>
       </c>
       <c r="G9" t="n">
-        <v>1587.99</v>
+        <v>1588</v>
       </c>
       <c r="H9" t="n">
-        <v>177628.52</v>
+        <v>1713</v>
       </c>
       <c r="I9" t="n">
-        <v>1874637</v>
+        <v>12392.66</v>
       </c>
       <c r="J9" t="n">
-        <v>2053853.51</v>
+        <v>15693.66</v>
       </c>
     </row>
     <row r="10">
@@ -774,16 +774,16 @@
         <v>168133.15</v>
       </c>
       <c r="G10" t="n">
-        <v>1495.5</v>
+        <v>1495.48</v>
       </c>
       <c r="H10" t="n">
-        <v>198167.05</v>
+        <v>1632</v>
       </c>
       <c r="I10" t="n">
-        <v>2000719.74</v>
+        <v>12147.95</v>
       </c>
       <c r="J10" t="n">
-        <v>2200382.29</v>
+        <v>15275.43</v>
       </c>
     </row>
     <row r="11">
@@ -808,16 +808,16 @@
         <v>168110.87</v>
       </c>
       <c r="G11" t="n">
-        <v>1836.12</v>
+        <v>1836.13</v>
       </c>
       <c r="H11" t="n">
-        <v>227776.05</v>
+        <v>1502</v>
       </c>
       <c r="I11" t="n">
-        <v>2296581.83</v>
+        <v>13321.29</v>
       </c>
       <c r="J11" t="n">
-        <v>2526194</v>
+        <v>16659.42</v>
       </c>
     </row>
     <row r="12">
@@ -842,16 +842,16 @@
         <v>160546.02</v>
       </c>
       <c r="G12" t="n">
-        <v>1528.72</v>
+        <v>1528.73</v>
       </c>
       <c r="H12" t="n">
-        <v>242820.05</v>
+        <v>1445</v>
       </c>
       <c r="I12" t="n">
-        <v>2424958.15</v>
+        <v>11309.23</v>
       </c>
       <c r="J12" t="n">
-        <v>2669306.92</v>
+        <v>14282.96</v>
       </c>
     </row>
     <row r="13">
@@ -879,13 +879,13 @@
         <v>1603.26</v>
       </c>
       <c r="H13" t="n">
-        <v>274277.52</v>
+        <v>1666</v>
       </c>
       <c r="I13" t="n">
-        <v>2715477.67</v>
+        <v>10705.67</v>
       </c>
       <c r="J13" t="n">
-        <v>2991358.45</v>
+        <v>13974.93</v>
       </c>
     </row>
   </sheetData>
